--- a/Salary/Template W[week number] Salaries and Tasks.xlsx
+++ b/Salary/Template W[week number] Salaries and Tasks.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>George Selim</t>
-  </si>
-  <si>
-    <t>(Leon Thomm)</t>
   </si>
   <si>
     <t>CHF/h:</t>
@@ -831,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -894,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +936,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
         <f>C12*D5</f>
@@ -948,52 +945,46 @@
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7">
-        <f>C13*D5</f>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B8:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
+      <c r="A15" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="8">
-        <f>SUM(B8:B13)</f>
-        <v>0</v>
+        <f>B5*100-B14</f>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
-        <f>B5*100-B15</f>
-        <v>500</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="18" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
@@ -1018,10 +1009,6 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1029,48 +1016,43 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>ISBLANK($B$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISBLANK($C$12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>ISBLANK($C$13)</formula>
+  <conditionalFormatting sqref="A19:A25">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($A$19)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A26">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>ISBLANK($A$20)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B26">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISBLANK($B$20)</formula>
+  <conditionalFormatting sqref="B19:B25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($B$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salary/Template W[week number] Salaries and Tasks.xlsx
+++ b/Salary/Template W[week number] Salaries and Tasks.xlsx
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -315,6 +315,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -324,154 +327,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -831,7 +692,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,14 +703,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -869,7 +730,7 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -898,9 +759,9 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
-        <f>C8*D5</f>
-        <v>0</v>
+      <c r="B8" s="15" t="e">
+        <f>B5*D5/C14*C8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C8" s="7"/>
     </row>
@@ -908,9 +769,9 @@
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
-        <f>C9*D5</f>
-        <v>0</v>
+      <c r="B9" s="15" t="e">
+        <f>B5*D5/C14*C9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -918,9 +779,9 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
-        <f>C10*D5</f>
-        <v>0</v>
+      <c r="B10" s="15" t="e">
+        <f>B5*D5/C14*C10</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C10" s="7"/>
     </row>
@@ -928,9 +789,9 @@
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7">
-        <f>C11*D5</f>
-        <v>0</v>
+      <c r="B11" s="15" t="e">
+        <f>B5*D5/C14*C11</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -938,9 +799,9 @@
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
-        <f>C12*D5</f>
-        <v>0</v>
+      <c r="B12" s="15" t="e">
+        <f>B5*D5/C14*C12</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -952,8 +813,12 @@
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="8" t="e">
         <f>SUM(B8:B12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C8:C12)</f>
         <v>0</v>
       </c>
     </row>
@@ -961,9 +826,9 @@
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="8" t="e">
         <f>B5*100-B14</f>
-        <v>500</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1016,32 +881,32 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>ISBLANK($B$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>ISBLANK($C$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>ISBLANK($C$9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>ISBLANK($C$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>ISBLANK($C$11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>ISBLANK($C$12)</formula>
     </cfRule>
   </conditionalFormatting>
